--- a/Homework1.xlsx
+++ b/Homework1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\computer\Desktop\DBSM_lessons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C4452A4-6909-4658-B6BB-9AD13B9EF59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6681964-43FC-4899-A3A3-802D5BD53347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E4E8D5B-80B7-42B3-8E4D-AA64E4F1D526}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="218">
   <si>
     <t>Пусть T1 - множество чисел в римских цифрах, а T2 - множество чисел в арабских цифрах. A - отношение  над множествами T1 и T2.</t>
   </si>
@@ -242,12 +242,15 @@
     <t>Отец</t>
   </si>
   <si>
+    <t>---------&gt;</t>
+  </si>
+  <si>
+    <t>Марина</t>
+  </si>
+  <si>
     <t>&lt;---------&gt;</t>
   </si>
   <si>
-    <t>Марина</t>
-  </si>
-  <si>
     <t>Варя</t>
   </si>
   <si>
@@ -257,7 +260,13 @@
     <t>|</t>
   </si>
   <si>
-    <t xml:space="preserve">    /          \</t>
+    <t>&lt;---------/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /        \</t>
+  </si>
+  <si>
+    <t>\----------&gt;</t>
   </si>
   <si>
     <t>Постройте иерархическую и сетевую модели этих данных.</t>
@@ -1227,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C63A9C-52B5-48DD-AFC1-6117206D7AE1}">
   <dimension ref="A2:AE252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G247" sqref="G247:G248"/>
+    <sheetView tabSelected="1" topLeftCell="I53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB62" sqref="AB62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -2276,10 +2285,10 @@
         <v>69</v>
       </c>
       <c r="Y65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Z65" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="15">
@@ -2287,38 +2296,44 @@
         <v>7</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R66" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="W66" t="s">
+        <v>74</v>
       </c>
       <c r="X66" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="15">
       <c r="B67" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R67" s="24" t="s">
         <v>69</v>
       </c>
       <c r="X67" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y67" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="15">
       <c r="Q68" s="20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R68" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S68" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="15">
@@ -2326,21 +2341,21 @@
         <v>8</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q69" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="R69" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="Q69" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="R69" s="24" t="s">
-        <v>76</v>
-      </c>
       <c r="S69" s="24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="15">
       <c r="G71" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H71" s="19" t="s">
         <v>17</v>
@@ -2371,7 +2386,7 @@
       </c>
       <c r="K72" s="20"/>
       <c r="L72" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M72" s="7">
         <v>2</v>
@@ -2387,7 +2402,7 @@
       </c>
       <c r="K73" s="20"/>
       <c r="L73" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M73" s="7">
         <v>2</v>
@@ -2399,11 +2414,11 @@
         <v>4</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K74" s="20"/>
       <c r="L74" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M74" s="7">
         <v>4</v>
@@ -2415,7 +2430,7 @@
     </row>
     <row r="76" spans="1:26" ht="15">
       <c r="G76" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H76" s="19" t="s">
         <v>18</v>
@@ -2433,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:26">
@@ -2465,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:26">
@@ -2481,7 +2496,7 @@
         <v>4</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:26">
@@ -2490,7 +2505,7 @@
     </row>
     <row r="81" spans="1:13" ht="15">
       <c r="G81" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H81" s="19" t="s">
         <v>17</v>
@@ -2499,16 +2514,16 @@
         <v>9</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K81" s="19" t="s">
         <v>17</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -2521,7 +2536,7 @@
       </c>
       <c r="K82" s="21"/>
       <c r="L82" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M82" s="8">
         <v>2</v>
@@ -2533,11 +2548,11 @@
         <v>45</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K83" s="21"/>
       <c r="L83" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M83" s="8">
         <v>2</v>
@@ -2549,11 +2564,11 @@
         <v>4</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K84" s="21"/>
       <c r="L84" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M84" s="8">
         <v>4</v>
@@ -2565,7 +2580,7 @@
     </row>
     <row r="86" spans="1:13" ht="15">
       <c r="G86" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H86" s="19" t="s">
         <v>17</v>
@@ -2574,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K86" s="19" t="s">
         <v>17</v>
@@ -2605,7 +2620,7 @@
         <v>78</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L88" s="7">
         <v>3</v>
@@ -2619,7 +2634,7 @@
         <v>4</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L89" s="7">
         <v>4</v>
@@ -2633,18 +2648,18 @@
         <v>9</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="B92" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="15"/>
     <row r="94" spans="1:13" ht="15">
       <c r="H94" s="33" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I94" s="9" t="s">
         <v>54</v>
@@ -2653,33 +2668,33 @@
         <v>55</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L94" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="15">
       <c r="H95" s="33" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L95" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="15">
@@ -2687,16 +2702,16 @@
         <v>1</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K96" s="7">
         <v>1</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M96" s="10">
         <v>36892</v>
@@ -2707,16 +2722,16 @@
         <v>2</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K97" s="7">
         <v>2</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M97" s="10">
         <v>39815</v>
@@ -2727,16 +2742,16 @@
         <v>3</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K98" s="7">
         <v>3</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M98" s="10">
         <v>43833</v>
@@ -2747,16 +2762,16 @@
         <v>4</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K99" s="7">
         <v>1</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M99" s="10">
         <v>36892</v>
@@ -2767,16 +2782,16 @@
         <v>5</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K100" s="7">
         <v>3</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M100" s="10">
         <v>42374</v>
@@ -2787,23 +2802,23 @@
         <v>10</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="15">
       <c r="B104" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J104" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K104" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:15">
       <c r="F106" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H106" s="9" t="s">
         <v>54</v>
@@ -2812,10 +2827,10 @@
         <v>55</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M106" s="9" t="s">
         <v>54</v>
@@ -2824,123 +2839,123 @@
         <v>55</v>
       </c>
       <c r="O106" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:15">
       <c r="H107" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N107" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O107" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:15">
       <c r="H108" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J108" s="7">
         <v>290</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:15">
       <c r="H109" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I109" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="I109" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="J109" s="7">
         <v>302</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N109" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:15">
       <c r="H110" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J110" s="7">
         <v>300</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="1:15">
       <c r="H111" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I111" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="I111" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="J111" s="7">
         <v>296</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" spans="1:15">
       <c r="H112" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J112" s="7">
         <v>298</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="6:15">
       <c r="F114" s="14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H114" s="9" t="s">
         <v>54</v>
@@ -2949,7 +2964,7 @@
         <v>55</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K114" s="11"/>
       <c r="M114" s="9" t="s">
@@ -2959,106 +2974,106 @@
         <v>55</v>
       </c>
       <c r="O114" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="6:15">
       <c r="H115" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K115" s="11"/>
       <c r="M115" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N115" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O115" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="6:15">
       <c r="H116" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O116" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="6:15">
       <c r="H117" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I117" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="I117" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="J117" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M117" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N117" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O117" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="6:15">
       <c r="H118" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="6:15">
       <c r="H119" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I119" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I119" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="J119" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="6:15">
       <c r="H120" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="6:15">
       <c r="F122" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H122" s="9" t="s">
         <v>54</v>
@@ -3067,10 +3082,10 @@
         <v>55</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M122" s="9" t="s">
         <v>54</v>
@@ -3079,123 +3094,123 @@
         <v>55</v>
       </c>
       <c r="O122" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="6:15">
       <c r="H123" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K123" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M123" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N123" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O123" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" spans="6:15">
       <c r="H124" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I124" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J124" s="7">
         <v>290</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M124" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N124" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O124" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="6:15">
       <c r="H125" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I125" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="I125" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="J125" s="7">
         <v>302</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M125" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N125" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O125" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="6:15">
       <c r="H126" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J126" s="7">
         <v>300</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="6:15">
       <c r="H127" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I127" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="I127" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="J127" s="7">
         <v>296</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="6:15">
       <c r="H128" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I128" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J128" s="7">
         <v>298</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="6:15">
       <c r="F130" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H130" s="9" t="s">
         <v>54</v>
@@ -3204,10 +3219,10 @@
         <v>55</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K130" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M130" s="9" t="s">
         <v>54</v>
@@ -3216,123 +3231,123 @@
         <v>55</v>
       </c>
       <c r="O130" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131" spans="6:15">
       <c r="H131" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K131" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M131" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N131" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O131" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="6:15">
       <c r="H132" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I132" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J132" s="7">
         <v>290</v>
       </c>
       <c r="K132" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M132" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N132" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O132" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="6:15">
       <c r="H133" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I133" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="I133" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="J133" s="7">
         <v>302</v>
       </c>
       <c r="K133" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M133" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N133" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O133" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" spans="6:15">
       <c r="H134" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I134" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J134" s="7">
         <v>300</v>
       </c>
       <c r="K134" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="6:15">
       <c r="H135" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I135" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="I135" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="J135" s="7">
         <v>296</v>
       </c>
       <c r="K135" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="6:15">
       <c r="H136" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I136" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J136" s="7">
         <v>298</v>
       </c>
       <c r="K136" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="6:15">
       <c r="F138" s="14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H138" s="9" t="s">
         <v>54</v>
@@ -3341,10 +3356,10 @@
         <v>55</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K138" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M138" s="9" t="s">
         <v>54</v>
@@ -3353,118 +3368,118 @@
         <v>55</v>
       </c>
       <c r="O138" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="139" spans="6:15">
       <c r="H139" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K139" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M139" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N139" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O139" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140" spans="6:15">
       <c r="H140" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I140" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J140" s="7">
         <v>290</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M140" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N140" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O140" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141" spans="6:15">
       <c r="H141" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I141" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="I141" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="J141" s="7">
         <v>302</v>
       </c>
       <c r="K141" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M141" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N141" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O141" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="6:15">
       <c r="H142" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I142" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J142" s="7">
         <v>300</v>
       </c>
       <c r="K142" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143" spans="6:15">
       <c r="H143" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I143" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="I143" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="J143" s="7">
         <v>296</v>
       </c>
       <c r="K143" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="144" spans="6:15">
       <c r="H144" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I144" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J144" s="7">
         <v>298</v>
       </c>
       <c r="K144" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -3472,58 +3487,58 @@
         <v>11</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147" spans="1:20">
       <c r="B147" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:20" ht="15">
       <c r="H149" s="9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K149" s="9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:20">
       <c r="H150" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K150" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:20" ht="15">
       <c r="F151" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J151" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K151" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152" spans="1:20">
       <c r="H152" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K152" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153" spans="1:20" ht="15">
       <c r="K153" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154" spans="1:20" ht="15"/>
@@ -3532,41 +3547,41 @@
         <v>12</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="156" spans="1:20" ht="15">
       <c r="H156" s="9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I156" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J156" s="9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M156" s="9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N156" s="9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O156" s="9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="R156" s="9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S156" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="T156" s="9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157" spans="1:20" ht="15">
       <c r="H157" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I157" s="7">
         <v>15000</v>
@@ -3575,10 +3590,10 @@
         <v>1</v>
       </c>
       <c r="M157" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N157" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O157" s="7">
         <v>2</v>
@@ -3587,10 +3602,10 @@
         <v>1</v>
       </c>
       <c r="S157" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="T157" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:20" ht="15">
@@ -3610,33 +3625,33 @@
         <v>1</v>
       </c>
       <c r="L158" t="s">
+        <v>171</v>
+      </c>
+      <c r="M158" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="N158" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="M158" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="N158" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="O158" s="7">
         <v>1</v>
       </c>
       <c r="Q158" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="R158" s="7">
         <v>2</v>
       </c>
       <c r="S158" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="T158" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:20" ht="15">
       <c r="H159" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I159" s="7">
         <v>60000</v>
@@ -3645,10 +3660,10 @@
         <v>1</v>
       </c>
       <c r="M159" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N159" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O159" s="7">
         <v>2</v>
@@ -3656,7 +3671,7 @@
     </row>
     <row r="160" spans="1:20" ht="15">
       <c r="H160" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I160" s="7">
         <v>17000</v>
@@ -3668,7 +3683,7 @@
         <v>57</v>
       </c>
       <c r="N160" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O160" s="7">
         <v>1</v>
@@ -3676,7 +3691,7 @@
     </row>
     <row r="161" spans="2:31" ht="15">
       <c r="H161" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I161" s="7">
         <v>23000</v>
@@ -3685,24 +3700,24 @@
         <v>1</v>
       </c>
       <c r="M161" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N161" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O161" s="7">
         <v>1</v>
       </c>
       <c r="R161" s="9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="S161" s="9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="2:31" ht="15">
       <c r="H162" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I162" s="7">
         <v>25000</v>
@@ -3711,19 +3726,19 @@
         <v>2</v>
       </c>
       <c r="M162" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="N162" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O162" s="7">
         <v>2</v>
       </c>
       <c r="Q162" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="R162" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="S162" s="12">
         <v>45627</v>
@@ -3731,7 +3746,7 @@
     </row>
     <row r="163" spans="2:31" ht="15">
       <c r="H163" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I163" s="7">
         <v>32000</v>
@@ -3740,7 +3755,7 @@
         <v>2</v>
       </c>
       <c r="R163" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="S163" s="12">
         <v>45047</v>
@@ -3748,7 +3763,7 @@
     </row>
     <row r="164" spans="2:31" ht="15">
       <c r="H164" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I164" s="7">
         <v>16000</v>
@@ -3759,7 +3774,7 @@
     </row>
     <row r="165" spans="2:31" ht="15">
       <c r="H165" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I165" s="7">
         <v>20000</v>
@@ -3770,7 +3785,7 @@
     </row>
     <row r="166" spans="2:31" ht="15">
       <c r="H166" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I166" s="7">
         <v>40000</v>
@@ -3782,107 +3797,107 @@
     <row r="167" spans="2:31" ht="15"/>
     <row r="168" spans="2:31" ht="15">
       <c r="B168" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="2:31" ht="15"/>
     <row r="170" spans="2:31" ht="15">
       <c r="C170" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D170" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O170" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U170" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA170" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="171" spans="2:31" ht="15">
       <c r="C171" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D171" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I171" s="22" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J171" s="22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K171" s="22" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L171" s="22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M171" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="O171" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="P171" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q171" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="O171" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="P171" s="22" t="s">
+      <c r="R171" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="S171" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="U171" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="Q171" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="R171" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="S171" s="22" t="s">
+      <c r="V171" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="W171" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="U171" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="V171" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="W171" s="22" t="s">
-        <v>159</v>
-      </c>
       <c r="X171" s="22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Y171" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA171" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="AA171" s="22" t="s">
-        <v>159</v>
-      </c>
       <c r="AB171" s="22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AC171" s="22" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AD171" s="22" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AE171" s="22" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="2:31" ht="15">
       <c r="C172" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D172" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I172" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J172" s="7">
         <v>15000</v>
@@ -3891,52 +3906,52 @@
         <v>1</v>
       </c>
       <c r="L172" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M172" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O172" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="O172" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="P172" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q172" s="7">
         <v>2</v>
       </c>
       <c r="R172" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="S172" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="U172" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="V172" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="W172" s="7">
         <v>2</v>
       </c>
       <c r="X172" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Y172" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AA172" s="7">
         <v>1</v>
       </c>
       <c r="AB172" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AC172" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AD172" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AE172" s="12">
         <v>45627</v>
@@ -3944,10 +3959,10 @@
     </row>
     <row r="173" spans="2:31" ht="15">
       <c r="C173" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D173" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I173" s="7" t="s">
         <v>57</v>
@@ -3959,52 +3974,52 @@
         <v>1</v>
       </c>
       <c r="L173" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M173" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O173" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P173" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q173" s="7">
+        <v>1</v>
+      </c>
+      <c r="R173" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P173" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q173" s="7">
-        <v>1</v>
-      </c>
-      <c r="R173" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="S173" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="U173" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="V173" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="W173" s="7">
+        <v>1</v>
+      </c>
+      <c r="X173" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="V173" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="W173" s="7">
-        <v>1</v>
-      </c>
-      <c r="X173" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="Y173" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AA173" s="7">
         <v>2</v>
       </c>
       <c r="AB173" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AC173" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AD173" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AE173" s="12">
         <v>45047</v>
@@ -4012,7 +4027,7 @@
     </row>
     <row r="174" spans="2:31" ht="15">
       <c r="I174" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J174" s="7">
         <v>60000</v>
@@ -4021,52 +4036,52 @@
         <v>1</v>
       </c>
       <c r="L174" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M174" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O174" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P174" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q174" s="7">
+        <v>2</v>
+      </c>
+      <c r="R174" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P174" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q174" s="7">
-        <v>2</v>
-      </c>
-      <c r="R174" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="S174" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="U174" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="V174" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="W174" s="7">
         <v>2</v>
       </c>
       <c r="X174" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Y174" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AA174" s="7">
         <v>1</v>
       </c>
       <c r="AB174" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AC174" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AD174" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AE174" s="12">
         <v>45047</v>
@@ -4074,7 +4089,7 @@
     </row>
     <row r="175" spans="2:31" ht="15">
       <c r="I175" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J175" s="7">
         <v>17000</v>
@@ -4083,52 +4098,52 @@
         <v>1</v>
       </c>
       <c r="L175" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M175" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O175" s="7" t="s">
         <v>57</v>
       </c>
       <c r="P175" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q175" s="7">
         <v>1</v>
       </c>
       <c r="R175" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="S175" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="U175" s="7" t="s">
         <v>57</v>
       </c>
       <c r="V175" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="W175" s="7">
+        <v>1</v>
+      </c>
+      <c r="X175" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y175" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA175" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB175" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC175" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="W175" s="7">
-        <v>1</v>
-      </c>
-      <c r="X175" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y175" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA175" s="7">
-        <v>2</v>
-      </c>
-      <c r="AB175" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC175" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="AD175" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AE175" s="12">
         <v>45627</v>
@@ -4136,7 +4151,7 @@
     </row>
     <row r="176" spans="2:31" ht="15">
       <c r="I176" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J176" s="7">
         <v>23000</v>
@@ -4145,45 +4160,45 @@
         <v>1</v>
       </c>
       <c r="L176" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M176" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O176" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P176" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q176" s="7">
+        <v>1</v>
+      </c>
+      <c r="R176" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P176" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q176" s="7">
-        <v>1</v>
-      </c>
-      <c r="R176" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="S176" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="U176" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="V176" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="W176" s="7">
+        <v>1</v>
+      </c>
+      <c r="X176" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="V176" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="W176" s="7">
-        <v>1</v>
-      </c>
-      <c r="X176" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="Y176" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="177" spans="1:25" ht="15">
       <c r="I177" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J177" s="7">
         <v>25000</v>
@@ -4192,45 +4207,45 @@
         <v>2</v>
       </c>
       <c r="L177" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M177" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O177" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P177" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q177" s="7">
+        <v>2</v>
+      </c>
+      <c r="R177" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="S177" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="Q177" s="7">
-        <v>2</v>
-      </c>
-      <c r="R177" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="S177" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="U177" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="V177" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="W177" s="7">
         <v>2</v>
       </c>
       <c r="X177" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Y177" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="178" spans="1:25" ht="15">
       <c r="I178" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J178" s="7">
         <v>32000</v>
@@ -4239,30 +4254,30 @@
         <v>2</v>
       </c>
       <c r="L178" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M178" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="U178" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="V178" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="W178" s="7">
         <v>2</v>
       </c>
       <c r="X178" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Y178" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="179" spans="1:25" ht="15">
       <c r="I179" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J179" s="7">
         <v>16000</v>
@@ -4271,30 +4286,30 @@
         <v>2</v>
       </c>
       <c r="L179" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M179" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="U179" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="U179" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="V179" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="W179" s="7">
         <v>1</v>
       </c>
       <c r="X179" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Y179" s="23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="180" spans="1:25" ht="15">
       <c r="I180" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J180" s="7">
         <v>20000</v>
@@ -4303,30 +4318,30 @@
         <v>2</v>
       </c>
       <c r="L180" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M180" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="U180" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="V180" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="W180" s="7">
+        <v>2</v>
+      </c>
+      <c r="X180" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="V180" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="W180" s="7">
-        <v>2</v>
-      </c>
-      <c r="X180" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="Y180" s="23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="181" spans="1:25" ht="15">
       <c r="I181" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J181" s="7">
         <v>40000</v>
@@ -4335,59 +4350,59 @@
         <v>2</v>
       </c>
       <c r="L181" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M181" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="U181" s="7" t="s">
         <v>57</v>
       </c>
       <c r="V181" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="W181" s="7">
+        <v>1</v>
+      </c>
+      <c r="X181" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y181" s="23" t="s">
         <v>175</v>
-      </c>
-      <c r="W181" s="7">
-        <v>1</v>
-      </c>
-      <c r="X181" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y181" s="23" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="182" spans="1:25" ht="15">
       <c r="U182" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V182" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="W182" s="7">
+        <v>1</v>
+      </c>
+      <c r="X182" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y182" s="23" t="s">
         <v>175</v>
-      </c>
-      <c r="W182" s="7">
-        <v>1</v>
-      </c>
-      <c r="X182" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y182" s="23" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="183" spans="1:25" ht="15">
       <c r="U183" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="V183" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="W183" s="7">
+        <v>2</v>
+      </c>
+      <c r="X183" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y183" s="23" t="s">
         <v>175</v>
-      </c>
-      <c r="W183" s="7">
-        <v>2</v>
-      </c>
-      <c r="X183" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y183" s="23" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="184" spans="1:25" ht="15">
@@ -4395,60 +4410,60 @@
         <v>13</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="185" spans="1:25" ht="15">
       <c r="B185" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="186" spans="1:25" ht="15"/>
     <row r="187" spans="1:25" ht="15">
       <c r="B187" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="188" spans="1:25" ht="15"/>
     <row r="189" spans="1:25" ht="15">
       <c r="E189" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F189" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I189" s="19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J189" s="24" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K189" s="24" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L189" s="25" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M189" s="24"/>
       <c r="N189" s="19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O189" s="24" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P189" s="24" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q189" s="25" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="190" spans="1:25" ht="15">
       <c r="E190" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F190" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J190" s="24">
         <v>0</v>
@@ -4542,38 +4557,38 @@
         <v>14</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="196" spans="1:17">
       <c r="B196" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="197" spans="1:17" ht="15">
       <c r="B197" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I197" s="5"/>
       <c r="J197" s="22" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K197" s="22" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L197" s="22" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="198" spans="1:17" ht="15">
       <c r="B198" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J198" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K198" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L198" s="7">
         <v>2</v>
@@ -4581,10 +4596,10 @@
     </row>
     <row r="199" spans="1:17" ht="15">
       <c r="J199" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K199" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L199" s="7">
         <v>1</v>
@@ -4592,10 +4607,10 @@
     </row>
     <row r="200" spans="1:17" ht="15">
       <c r="J200" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K200" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L200" s="7">
         <v>2</v>
@@ -4606,7 +4621,7 @@
         <v>57</v>
       </c>
       <c r="K201" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L201" s="7">
         <v>1</v>
@@ -4614,10 +4629,10 @@
     </row>
     <row r="202" spans="1:17" ht="15">
       <c r="J202" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K202" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L202" s="7">
         <v>1</v>
@@ -4625,10 +4640,10 @@
     </row>
     <row r="203" spans="1:17" ht="15">
       <c r="J203" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K203" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L203" s="7">
         <v>2</v>
@@ -4636,13 +4651,13 @@
     </row>
     <row r="206" spans="1:17">
       <c r="B206" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="207" spans="1:17" ht="15"/>
     <row r="208" spans="1:17" ht="15">
       <c r="C208" s="35" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="15">
@@ -4656,7 +4671,7 @@
         <v>15</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="15">
@@ -4664,20 +4679,20 @@
         <v>35</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="15">
       <c r="C215" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="15">
       <c r="C216" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -4685,17 +4700,17 @@
         <v>16</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="15">
       <c r="C221" s="36" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="15">
       <c r="C222" s="36" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -4703,13 +4718,13 @@
         <v>17</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="15"/>
     <row r="226" spans="1:6" ht="15">
       <c r="D226" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="15">
@@ -4718,29 +4733,29 @@
     <row r="228" spans="1:6" ht="15">
       <c r="D228" s="27"/>
       <c r="E228" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F228" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="15">
       <c r="D229" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="15">
       <c r="E230" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F230" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="15"/>
     <row r="232" spans="1:6" ht="15">
       <c r="D232" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -4748,12 +4763,12 @@
         <v>18</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="15">
       <c r="C236" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -4763,7 +4778,7 @@
         <v>19</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="15">
@@ -4771,30 +4786,30 @@
     </row>
     <row r="241" spans="2:8" ht="15">
       <c r="B241" s="22" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C241" s="22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D241" s="22" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E241" s="22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F241" s="22" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G241" s="22" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H241" s="22" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="242" spans="2:8" ht="15">
       <c r="B242" s="28" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C242" s="28">
         <v>15000</v>
@@ -4803,10 +4818,10 @@
         <v>1</v>
       </c>
       <c r="E242" s="28" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F242" s="28" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G242" s="28" t="s">
         <v>6</v>
@@ -4826,13 +4841,13 @@
         <v>1</v>
       </c>
       <c r="E243" s="28" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F243" s="28" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G243" s="28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H243" s="29">
         <v>45047</v>
@@ -4840,7 +4855,7 @@
     </row>
     <row r="244" spans="2:8" ht="15">
       <c r="B244" s="28" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C244" s="28">
         <v>60000</v>
@@ -4849,10 +4864,10 @@
         <v>1</v>
       </c>
       <c r="E244" s="28" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F244" s="28" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G244" s="28" t="s">
         <v>6</v>
@@ -4863,7 +4878,7 @@
     </row>
     <row r="245" spans="2:8" ht="15">
       <c r="B245" s="28" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C245" s="28">
         <v>17000</v>
@@ -4872,13 +4887,13 @@
         <v>1</v>
       </c>
       <c r="E245" s="28" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F245" s="28" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G245" s="28" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H245" s="30">
         <v>45627</v>
@@ -4886,7 +4901,7 @@
     </row>
     <row r="246" spans="2:8" ht="15">
       <c r="B246" s="28" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C246" s="28">
         <v>23000</v>
@@ -4895,10 +4910,10 @@
         <v>1</v>
       </c>
       <c r="E246" s="28" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F246" s="28" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G246" s="28" t="s">
         <v>6</v>
@@ -4909,7 +4924,7 @@
     </row>
     <row r="247" spans="2:8" ht="15">
       <c r="B247" s="28" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C247" s="28">
         <v>25000</v>
@@ -4918,10 +4933,10 @@
         <v>2</v>
       </c>
       <c r="E247" s="28" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F247" s="28" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G247" s="28" t="s">
         <v>6</v>
@@ -4932,7 +4947,7 @@
     </row>
     <row r="248" spans="2:8" ht="15">
       <c r="B248" s="28" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C248" s="28">
         <v>32000</v>
@@ -4941,10 +4956,10 @@
         <v>2</v>
       </c>
       <c r="E248" s="28" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F248" s="28" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G248" s="28" t="s">
         <v>6</v>
@@ -4955,7 +4970,7 @@
     </row>
     <row r="249" spans="2:8" ht="15">
       <c r="B249" s="28" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C249" s="28">
         <v>16000</v>
@@ -4964,13 +4979,13 @@
         <v>2</v>
       </c>
       <c r="E249" s="28" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F249" s="28" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G249" s="28" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H249" s="30">
         <v>45627</v>
@@ -4978,7 +4993,7 @@
     </row>
     <row r="250" spans="2:8" ht="15">
       <c r="B250" s="28" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C250" s="28">
         <v>20000</v>
@@ -4987,13 +5002,13 @@
         <v>2</v>
       </c>
       <c r="E250" s="28" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F250" s="28" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G250" s="28" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H250" s="30">
         <v>45627</v>
@@ -5001,7 +5016,7 @@
     </row>
     <row r="251" spans="2:8" ht="15">
       <c r="B251" s="28" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C251" s="28">
         <v>40000</v>
@@ -5010,13 +5025,13 @@
         <v>2</v>
       </c>
       <c r="E251" s="28" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F251" s="28" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G251" s="28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H251" s="29">
         <v>45047</v>
@@ -5024,7 +5039,7 @@
     </row>
     <row r="252" spans="2:8" ht="15">
       <c r="B252" s="28" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C252" s="28">
         <v>17000</v>
@@ -5033,13 +5048,13 @@
         <v>1</v>
       </c>
       <c r="E252" s="28" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F252" s="28" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G252" s="28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H252" s="29">
         <v>45047</v>
